--- a/src/main/resources/com/metro/prediction/metroroutepredictor/Modified_DMRC_Stations.xlsx
+++ b/src/main/resources/com/metro/prediction/metroroutepredictor/Modified_DMRC_Stations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikas\IdeaProjects\MetroRoutePredictor\src\main\resources\com\metro\prediction\metroroutepredictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87A8EAA-1658-4653-AE33-3DDB1CC471D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23B9386-05C9-4423-8F0B-52F3007A88A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1824" yWindow="1800" windowWidth="17280" windowHeight="9420" xr2:uid="{F6A641C7-A60E-4E32-B5C5-1DBCE25BBE34}"/>
+    <workbookView xWindow="2172" yWindow="2148" windowWidth="17280" windowHeight="9420" xr2:uid="{F6A641C7-A60E-4E32-B5C5-1DBCE25BBE34}"/>
   </bookViews>
   <sheets>
     <sheet name="Lines" sheetId="1" r:id="rId1"/>
@@ -962,13 +962,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1287,7 +1287,7 @@
   <dimension ref="A1:H289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1303,16 +1303,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1321,18 +1321,19 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
@@ -6992,36 +6993,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A32"/>
+    <mergeCell ref="B4:B32"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A33:A69"/>
+    <mergeCell ref="B33:B69"/>
+    <mergeCell ref="A70:A119"/>
+    <mergeCell ref="B70:B119"/>
+    <mergeCell ref="A120:A125"/>
+    <mergeCell ref="B120:B125"/>
+    <mergeCell ref="A126:A146"/>
+    <mergeCell ref="B126:B146"/>
+    <mergeCell ref="A147:A157"/>
+    <mergeCell ref="B147:B157"/>
+    <mergeCell ref="A158:A191"/>
+    <mergeCell ref="B158:B191"/>
+    <mergeCell ref="A192:A216"/>
+    <mergeCell ref="B192:B216"/>
+    <mergeCell ref="A217:A254"/>
+    <mergeCell ref="B217:B254"/>
+    <mergeCell ref="A255:A262"/>
+    <mergeCell ref="B255:B262"/>
     <mergeCell ref="A263:A265"/>
     <mergeCell ref="B263:B265"/>
     <mergeCell ref="A266:A286"/>
     <mergeCell ref="B266:B286"/>
     <mergeCell ref="A287:A289"/>
     <mergeCell ref="B287:B289"/>
-    <mergeCell ref="A192:A216"/>
-    <mergeCell ref="B192:B216"/>
-    <mergeCell ref="A217:A254"/>
-    <mergeCell ref="B217:B254"/>
-    <mergeCell ref="A255:A262"/>
-    <mergeCell ref="B255:B262"/>
-    <mergeCell ref="A126:A146"/>
-    <mergeCell ref="B126:B146"/>
-    <mergeCell ref="A147:A157"/>
-    <mergeCell ref="B147:B157"/>
-    <mergeCell ref="A158:A191"/>
-    <mergeCell ref="B158:B191"/>
-    <mergeCell ref="A33:A69"/>
-    <mergeCell ref="B33:B69"/>
-    <mergeCell ref="A70:A119"/>
-    <mergeCell ref="B70:B119"/>
-    <mergeCell ref="A120:A125"/>
-    <mergeCell ref="B120:B125"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A4:A32"/>
-    <mergeCell ref="B4:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/com/metro/prediction/metroroutepredictor/Modified_DMRC_Stations.xlsx
+++ b/src/main/resources/com/metro/prediction/metroroutepredictor/Modified_DMRC_Stations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikas\IdeaProjects\MetroRoutePredictor\src\main\resources\com\metro\prediction\metroroutepredictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23B9386-05C9-4423-8F0B-52F3007A88A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6002EA3C-FA5A-4C39-9C25-6B93A6A7C5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2172" yWindow="2148" windowWidth="17280" windowHeight="9420" xr2:uid="{F6A641C7-A60E-4E32-B5C5-1DBCE25BBE34}"/>
   </bookViews>
@@ -65,18 +65,12 @@
     <t>Is_HeadStation</t>
   </si>
   <si>
-    <t>Change Line</t>
-  </si>
-  <si>
     <t>Red_Line</t>
   </si>
   <si>
     <t>Red</t>
   </si>
   <si>
-    <t>Shaheed Sthal(New Bus Adda)</t>
-  </si>
-  <si>
     <t>Hindon River</t>
   </si>
   <si>
@@ -924,6 +918,12 @@
   </si>
   <si>
     <t>Najafgarh</t>
+  </si>
+  <si>
+    <t>Change_Line</t>
+  </si>
+  <si>
+    <t>Shaheed Sthal (New Bus Adda)</t>
   </si>
 </sst>
 </file>
@@ -965,10 +965,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1287,7 +1287,7 @@
   <dimension ref="A1:H289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1303,36 +1303,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1349,21 +1349,21 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>295</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1376,13 +1376,13 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1395,13 +1395,13 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>2.5</v>
@@ -1414,13 +1414,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>3.2</v>
@@ -1433,13 +1433,13 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>4.5</v>
@@ -1452,13 +1452,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>5.7</v>
@@ -1471,13 +1471,13 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>6.9</v>
@@ -1490,13 +1490,13 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
       <c r="C11">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>8.1999999999999993</v>
@@ -1509,13 +1509,13 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
       <c r="C12">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>9.4</v>
@@ -1528,13 +1528,13 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>10.3</v>
@@ -1547,13 +1547,13 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
       <c r="C14">
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>11.4</v>
@@ -1566,13 +1566,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
       <c r="C15">
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>12.5</v>
@@ -1585,13 +1585,13 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
       <c r="C16">
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>13.7</v>
@@ -1603,17 +1603,17 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
       <c r="C17">
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>14.8</v>
@@ -1626,13 +1626,13 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
       <c r="C18">
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>16.399999999999999</v>
@@ -1645,13 +1645,13 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
       <c r="C19">
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>18.5</v>
@@ -1663,17 +1663,17 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
       <c r="C20">
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <v>19.7</v>
@@ -1686,13 +1686,13 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
       <c r="C21">
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <v>20.6</v>
@@ -1705,13 +1705,13 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
       <c r="C22">
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>21.4</v>
@@ -1724,13 +1724,13 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
       <c r="C23">
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E23">
         <v>23.1</v>
@@ -1743,13 +1743,13 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
       <c r="C24">
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E24">
         <v>24.3</v>
@@ -1761,17 +1761,17 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
       <c r="C25">
         <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E25">
         <v>25.5</v>
@@ -1784,13 +1784,13 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
       <c r="C26">
         <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E26">
         <v>26.2</v>
@@ -1803,13 +1803,13 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
       <c r="C27">
         <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E27">
         <v>27.4</v>
@@ -1821,17 +1821,17 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
       <c r="C28">
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E28">
         <v>28.6</v>
@@ -1844,13 +1844,13 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
       <c r="C29">
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E29">
         <v>29.6</v>
@@ -1863,13 +1863,13 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
       <c r="C30">
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E30">
         <v>30.4</v>
@@ -1882,13 +1882,13 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
       <c r="C31">
         <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E31">
         <v>31.7</v>
@@ -1901,13 +1901,13 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
       <c r="C32">
         <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E32">
         <v>32.700000000000003</v>
@@ -1920,18 +1920,18 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>46</v>
-      </c>
       <c r="E33">
         <v>0</v>
       </c>
@@ -1943,13 +1943,13 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E34">
         <v>0.8</v>
@@ -1962,13 +1962,13 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
       <c r="C35">
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E35">
         <v>2.1</v>
@@ -1981,13 +1981,13 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
       <c r="C36">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E36">
         <v>3.4</v>
@@ -2000,13 +2000,13 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
       <c r="C37">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E37">
         <v>4.7</v>
@@ -2019,13 +2019,13 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
       <c r="C38">
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E38">
         <v>6.2</v>
@@ -2037,17 +2037,17 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
       <c r="C39">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E39">
         <v>7.6</v>
@@ -2060,13 +2060,13 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
       <c r="C40">
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E40">
         <v>9</v>
@@ -2079,13 +2079,13 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
       <c r="C41">
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E41">
         <v>9.8000000000000007</v>
@@ -2098,13 +2098,13 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
       <c r="C42">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E42">
         <v>10.8</v>
@@ -2117,13 +2117,13 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
       <c r="C43">
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E43">
         <v>12.1</v>
@@ -2136,13 +2136,13 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
       <c r="C44">
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E44">
         <v>13.2</v>
@@ -2154,17 +2154,17 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
       <c r="C45">
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E45">
         <v>14.3</v>
@@ -2177,13 +2177,13 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
       <c r="C46">
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E46">
         <v>15.3</v>
@@ -2196,13 +2196,13 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
       <c r="C47">
         <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E47">
         <v>16.100000000000001</v>
@@ -2214,17 +2214,17 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
       <c r="C48">
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E48">
         <v>17.2</v>
@@ -2236,17 +2236,17 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
       <c r="C49">
         <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E49">
         <v>18.5</v>
@@ -2259,13 +2259,13 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
       <c r="C50">
         <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E50">
         <v>19.399999999999999</v>
@@ -2277,17 +2277,17 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
       <c r="C51">
         <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E51">
         <v>19.7</v>
@@ -2300,13 +2300,13 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
       <c r="C52">
         <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E52">
         <v>21.3</v>
@@ -2319,13 +2319,13 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
       <c r="C53">
         <v>21</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E53">
         <v>22.5</v>
@@ -2338,13 +2338,13 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
       <c r="C54">
         <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E54">
         <v>23.8</v>
@@ -2356,17 +2356,17 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
       <c r="C55">
         <v>23</v>
       </c>
       <c r="D55" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E55">
         <v>24.6</v>
@@ -2379,13 +2379,13 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
       <c r="C56">
         <v>24</v>
       </c>
       <c r="D56" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E56">
         <v>25.6</v>
@@ -2398,13 +2398,13 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
       <c r="C57">
         <v>25</v>
       </c>
       <c r="D57" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E57">
         <v>27.4</v>
@@ -2416,17 +2416,17 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
       <c r="C58">
         <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E58">
         <v>29.1</v>
@@ -2439,13 +2439,13 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
       <c r="C59">
         <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E59">
         <v>30</v>
@@ -2458,13 +2458,13 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
       <c r="C60">
         <v>28</v>
       </c>
       <c r="D60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E60">
         <v>31.7</v>
@@ -2477,13 +2477,13 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
       <c r="C61">
         <v>29</v>
       </c>
       <c r="D61" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E61">
         <v>33</v>
@@ -2496,13 +2496,13 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
       <c r="C62">
         <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E62">
         <v>34.6</v>
@@ -2515,13 +2515,13 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
       <c r="C63">
         <v>31</v>
       </c>
       <c r="D63" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E63">
         <v>35.9</v>
@@ -2534,13 +2534,13 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
       <c r="C64">
         <v>32</v>
       </c>
       <c r="D64" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E64">
         <v>38.6</v>
@@ -2553,13 +2553,13 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
       <c r="C65">
         <v>33</v>
       </c>
       <c r="D65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E65">
         <v>40.9</v>
@@ -2572,13 +2572,13 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
       <c r="C66">
         <v>34</v>
       </c>
       <c r="D66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E66">
         <v>41.9</v>
@@ -2590,17 +2590,17 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
       <c r="C67">
         <v>35</v>
       </c>
       <c r="D67" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E67">
         <v>43.1</v>
@@ -2613,13 +2613,13 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
       <c r="C68">
         <v>36</v>
       </c>
       <c r="D68" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E68">
         <v>44.2</v>
@@ -2632,13 +2632,13 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
       <c r="C69">
         <v>37</v>
       </c>
       <c r="D69" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E69">
         <v>45.7</v>
@@ -2651,17 +2651,17 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>62</v>
+      <c r="A70" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2673,17 +2673,17 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
       <c r="C71">
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E71">
         <v>1.7</v>
@@ -2696,13 +2696,13 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
       <c r="C72">
         <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E72">
         <v>2.7</v>
@@ -2715,13 +2715,13 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
       <c r="C73">
         <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E73">
         <v>3.8</v>
@@ -2734,13 +2734,13 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
       <c r="C74">
         <v>5</v>
       </c>
       <c r="D74" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E74">
         <v>4.8</v>
@@ -2753,13 +2753,13 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
       <c r="C75">
         <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E75">
         <v>5.8</v>
@@ -2772,13 +2772,13 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
       <c r="C76">
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E76">
         <v>6.7</v>
@@ -2791,13 +2791,13 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
       <c r="C77">
         <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E77">
         <v>7.6</v>
@@ -2810,13 +2810,13 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
       <c r="C78">
         <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E78">
         <v>9.1</v>
@@ -2828,17 +2828,17 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
       <c r="C79">
         <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E79">
         <v>10.199999999999999</v>
@@ -2851,13 +2851,13 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
       <c r="C80">
         <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E80">
         <v>11.4</v>
@@ -2870,13 +2870,13 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
       <c r="C81">
         <v>12</v>
       </c>
       <c r="D81" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E81">
         <v>12.4</v>
@@ -2889,13 +2889,13 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
       <c r="C82">
         <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E82">
         <v>13.4</v>
@@ -2908,13 +2908,13 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
       <c r="C83">
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E83">
         <v>14.7</v>
@@ -2926,17 +2926,17 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
       <c r="C84">
         <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E84">
         <v>15.7</v>
@@ -2949,13 +2949,13 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
       <c r="C85">
         <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E85">
         <v>16.7</v>
@@ -2968,13 +2968,13 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
       <c r="C86">
         <v>17</v>
       </c>
       <c r="D86" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E86">
         <v>17.600000000000001</v>
@@ -2987,13 +2987,13 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
       <c r="C87">
         <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E87">
         <v>18.5</v>
@@ -3006,13 +3006,13 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
       <c r="C88">
         <v>19</v>
       </c>
       <c r="D88" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E88">
         <v>19.600000000000001</v>
@@ -3024,17 +3024,17 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
       <c r="C89">
         <v>20</v>
       </c>
       <c r="D89" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E89">
         <v>20.6</v>
@@ -3047,13 +3047,13 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
       <c r="C90">
         <v>21</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E90">
         <v>21.8</v>
@@ -3066,13 +3066,13 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
       <c r="C91">
         <v>22</v>
       </c>
       <c r="D91" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E91">
         <v>22.8</v>
@@ -3084,17 +3084,17 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
       <c r="C92">
         <v>23</v>
       </c>
       <c r="D92" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E92">
         <v>23.5</v>
@@ -3107,13 +3107,13 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
       <c r="C93">
         <v>24</v>
       </c>
       <c r="D93" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E93">
         <v>24.8</v>
@@ -3126,13 +3126,13 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
       <c r="C94">
         <v>25</v>
       </c>
       <c r="D94" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E94">
         <v>25.7</v>
@@ -3145,13 +3145,13 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
       <c r="C95">
         <v>26</v>
       </c>
       <c r="D95" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E95">
         <v>26.7</v>
@@ -3164,13 +3164,13 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
       <c r="C96">
         <v>27</v>
       </c>
       <c r="D96" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E96">
         <v>27.9</v>
@@ -3183,13 +3183,13 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
       <c r="C97">
         <v>28</v>
       </c>
       <c r="D97" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E97">
         <v>28.9</v>
@@ -3202,13 +3202,13 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
       <c r="C98">
         <v>29</v>
       </c>
       <c r="D98" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E98">
         <v>30.1</v>
@@ -3220,17 +3220,17 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
       <c r="C99">
         <v>30</v>
       </c>
       <c r="D99" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E99">
         <v>30.8</v>
@@ -3243,13 +3243,13 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
       <c r="C100">
         <v>31</v>
       </c>
       <c r="D100" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E100">
         <v>31.8</v>
@@ -3261,17 +3261,17 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
       <c r="C101">
         <v>32</v>
       </c>
       <c r="D101" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E101">
         <v>32.6</v>
@@ -3284,13 +3284,13 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
       <c r="C102">
         <v>33</v>
       </c>
       <c r="D102" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E102">
         <v>33.4</v>
@@ -3303,13 +3303,13 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
       <c r="C103">
         <v>34</v>
       </c>
       <c r="D103" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E103">
         <v>35.200000000000003</v>
@@ -3322,13 +3322,13 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
       <c r="C104">
         <v>35</v>
       </c>
       <c r="D104" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E104">
         <v>36.5</v>
@@ -3341,13 +3341,13 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
       <c r="C105">
         <v>36</v>
       </c>
       <c r="D105" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E105">
         <v>38.299999999999997</v>
@@ -3359,17 +3359,17 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
       <c r="C106">
         <v>37</v>
       </c>
       <c r="D106" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E106">
         <v>39.5</v>
@@ -3382,13 +3382,13 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
       <c r="C107">
         <v>38</v>
       </c>
       <c r="D107" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E107">
         <v>40.4</v>
@@ -3401,13 +3401,13 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
       <c r="C108">
         <v>39</v>
       </c>
       <c r="D108" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E108">
         <v>41.4</v>
@@ -3420,13 +3420,13 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
       <c r="C109">
         <v>40</v>
       </c>
       <c r="D109" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E109">
         <v>42.5</v>
@@ -3439,13 +3439,13 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
       <c r="C110">
         <v>41</v>
       </c>
       <c r="D110" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E110">
         <v>43.6</v>
@@ -3458,13 +3458,13 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
       <c r="C111">
         <v>42</v>
       </c>
       <c r="D111" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E111">
         <v>44.7</v>
@@ -3476,17 +3476,17 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
       <c r="C112">
         <v>43</v>
       </c>
       <c r="D112" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E112">
         <v>45.9</v>
@@ -3499,13 +3499,13 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
       <c r="C113">
         <v>44</v>
       </c>
       <c r="D113" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E113">
         <v>47.2</v>
@@ -3518,13 +3518,13 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
       <c r="C114">
         <v>45</v>
       </c>
       <c r="D114" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E114">
         <v>48.1</v>
@@ -3537,13 +3537,13 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
       <c r="C115">
         <v>46</v>
       </c>
       <c r="D115" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E115">
         <v>49.3</v>
@@ -3555,17 +3555,17 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
       <c r="C116">
         <v>47</v>
       </c>
       <c r="D116" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E116">
         <v>50.5</v>
@@ -3578,13 +3578,13 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
       <c r="C117">
         <v>48</v>
       </c>
       <c r="D117" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E117">
         <v>51.5</v>
@@ -3597,13 +3597,13 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
       <c r="C118">
         <v>49</v>
       </c>
       <c r="D118" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E118">
         <v>52.7</v>
@@ -3616,13 +3616,13 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
       <c r="C119">
         <v>50</v>
       </c>
       <c r="D119" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E119">
         <v>53.9</v>
@@ -3635,17 +3635,17 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>60</v>
+      <c r="A120" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -3657,17 +3657,17 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
       <c r="C121">
         <v>2</v>
       </c>
       <c r="D121" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E121">
         <v>1.9</v>
@@ -3680,13 +3680,13 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
       <c r="C122">
         <v>3</v>
       </c>
       <c r="D122" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E122">
         <v>8.3000000000000007</v>
@@ -3698,17 +3698,17 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
       <c r="C123">
         <v>4</v>
       </c>
       <c r="D123" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E123">
         <v>14.5</v>
@@ -3721,13 +3721,13 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
       <c r="C124">
         <v>5</v>
       </c>
       <c r="D124" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E124">
         <v>17.899999999999999</v>
@@ -3740,13 +3740,13 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
       <c r="C125">
         <v>6</v>
       </c>
       <c r="D125" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E125">
         <v>20.8</v>
@@ -3758,21 +3758,21 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>35</v>
+      <c r="A126" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -3784,17 +3784,17 @@
         <v>1</v>
       </c>
       <c r="H126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
       <c r="C127">
         <v>2</v>
       </c>
       <c r="D127" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E127">
         <v>1.4</v>
@@ -3807,13 +3807,13 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
       <c r="C128">
         <v>3</v>
       </c>
       <c r="D128" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E128">
         <v>2.2999999999999998</v>
@@ -3826,13 +3826,13 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
       <c r="C129">
         <v>4</v>
       </c>
       <c r="D129" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E129">
         <v>3.9</v>
@@ -3845,13 +3845,13 @@
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
       <c r="C130">
         <v>5</v>
       </c>
       <c r="D130" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E130">
         <v>5</v>
@@ -3864,13 +3864,13 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
       <c r="C131">
         <v>6</v>
       </c>
       <c r="D131" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E131">
         <v>5.7</v>
@@ -3883,13 +3883,13 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
       <c r="C132">
         <v>7</v>
       </c>
       <c r="D132" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E132">
         <v>6.7</v>
@@ -3902,13 +3902,13 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
       <c r="C133">
         <v>8</v>
       </c>
       <c r="D133" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E133">
         <v>7.6</v>
@@ -3921,13 +3921,13 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
       <c r="C134">
         <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E134">
         <v>8.8000000000000007</v>
@@ -3940,13 +3940,13 @@
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
       <c r="C135">
         <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E135">
         <v>9.5</v>
@@ -3959,13 +3959,13 @@
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
       <c r="C136">
         <v>11</v>
       </c>
       <c r="D136" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E136">
         <v>10.3</v>
@@ -3978,13 +3978,13 @@
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
       <c r="C137">
         <v>12</v>
       </c>
       <c r="D137" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E137">
         <v>11.2</v>
@@ -3997,13 +3997,13 @@
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
       <c r="C138">
         <v>13</v>
       </c>
       <c r="D138" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E138">
         <v>12.4</v>
@@ -4016,13 +4016,13 @@
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
       <c r="C139">
         <v>14</v>
       </c>
       <c r="D139" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E139">
         <v>13.7</v>
@@ -4035,13 +4035,13 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
       <c r="C140">
         <v>15</v>
       </c>
       <c r="D140" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E140">
         <v>15</v>
@@ -4054,13 +4054,13 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
       <c r="C141">
         <v>16</v>
       </c>
       <c r="D141" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E141">
         <v>17.100000000000001</v>
@@ -4073,13 +4073,13 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
       <c r="C142">
         <v>17</v>
       </c>
       <c r="D142" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E142">
         <v>18.899999999999999</v>
@@ -4092,13 +4092,13 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
       <c r="C143">
         <v>18</v>
       </c>
       <c r="D143" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E143">
         <v>20.2</v>
@@ -4111,13 +4111,13 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
       <c r="C144">
         <v>19</v>
       </c>
       <c r="D144" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E144">
         <v>21.5</v>
@@ -4130,13 +4130,13 @@
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
       <c r="C145">
         <v>20</v>
       </c>
       <c r="D145" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E145">
         <v>23</v>
@@ -4149,13 +4149,13 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
       <c r="C146">
         <v>21</v>
       </c>
       <c r="D146" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E146">
         <v>24.8</v>
@@ -4168,17 +4168,17 @@
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>82</v>
+      <c r="A147" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -4191,13 +4191,13 @@
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
       <c r="C148">
         <v>2</v>
       </c>
       <c r="D148" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E148">
         <v>1.1000000000000001</v>
@@ -4210,13 +4210,13 @@
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
       <c r="C149">
         <v>3</v>
       </c>
       <c r="D149" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E149">
         <v>2.6</v>
@@ -4229,13 +4229,13 @@
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
       <c r="C150">
         <v>4</v>
       </c>
       <c r="D150" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E150">
         <v>3.9</v>
@@ -4248,13 +4248,13 @@
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
       <c r="C151">
         <v>5</v>
       </c>
       <c r="D151" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E151">
         <v>5.5</v>
@@ -4267,13 +4267,13 @@
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
       <c r="C152">
         <v>6</v>
       </c>
       <c r="D152" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E152">
         <v>6.6</v>
@@ -4285,17 +4285,17 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
       <c r="C153">
         <v>7</v>
       </c>
       <c r="D153" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E153">
         <v>7.3</v>
@@ -4308,13 +4308,13 @@
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
       <c r="C154">
         <v>8</v>
       </c>
       <c r="D154" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E154">
         <v>8</v>
@@ -4327,13 +4327,13 @@
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
       <c r="C155">
         <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E155">
         <v>8.6</v>
@@ -4346,13 +4346,13 @@
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
+      <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
       <c r="C156">
         <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E156">
         <v>9.1999999999999993</v>
@@ -4365,13 +4365,13 @@
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
       <c r="C157">
         <v>11</v>
       </c>
       <c r="D157" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E157">
         <v>10</v>
@@ -4384,17 +4384,17 @@
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>29</v>
+      <c r="A158" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -4406,17 +4406,17 @@
         <v>1</v>
       </c>
       <c r="H158" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
+      <c r="A159" s="3"/>
+      <c r="B159" s="3"/>
       <c r="C159">
         <v>2</v>
       </c>
       <c r="D159" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E159">
         <v>1.5</v>
@@ -4429,13 +4429,13 @@
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
       <c r="C160">
         <v>3</v>
       </c>
       <c r="D160" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E160">
         <v>2.2999999999999998</v>
@@ -4448,13 +4448,13 @@
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
       <c r="C161">
         <v>4</v>
       </c>
       <c r="D161" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E161">
         <v>3.7</v>
@@ -4467,13 +4467,13 @@
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
       <c r="C162">
         <v>5</v>
       </c>
       <c r="D162" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E162">
         <v>5</v>
@@ -4486,13 +4486,13 @@
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
       <c r="C163">
         <v>6</v>
       </c>
       <c r="D163" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E163">
         <v>5.8</v>
@@ -4504,17 +4504,17 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
       <c r="C164">
         <v>7</v>
       </c>
       <c r="D164" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E164">
         <v>7.2</v>
@@ -4527,13 +4527,13 @@
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
+      <c r="A165" s="3"/>
+      <c r="B165" s="3"/>
       <c r="C165">
         <v>8</v>
       </c>
       <c r="D165" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E165">
         <v>8.5</v>
@@ -4545,17 +4545,17 @@
         <v>1</v>
       </c>
       <c r="H165" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
+      <c r="A166" s="3"/>
+      <c r="B166" s="3"/>
       <c r="C166">
         <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E166">
         <v>10.6</v>
@@ -4568,13 +4568,13 @@
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
+      <c r="A167" s="3"/>
+      <c r="B167" s="3"/>
       <c r="C167">
         <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E167">
         <v>12</v>
@@ -4587,13 +4587,13 @@
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
+      <c r="A168" s="3"/>
+      <c r="B168" s="3"/>
       <c r="C168">
         <v>11</v>
       </c>
       <c r="D168" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E168">
         <v>12.9</v>
@@ -4606,13 +4606,13 @@
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
+      <c r="A169" s="3"/>
+      <c r="B169" s="3"/>
       <c r="C169">
         <v>12</v>
       </c>
       <c r="D169" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E169">
         <v>14.4</v>
@@ -4624,17 +4624,17 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
+      <c r="A170" s="3"/>
+      <c r="B170" s="3"/>
       <c r="C170">
         <v>13</v>
       </c>
       <c r="D170" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E170">
         <v>15.1</v>
@@ -4647,13 +4647,13 @@
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
+      <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
       <c r="C171">
         <v>14</v>
       </c>
       <c r="D171" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E171">
         <v>16.399999999999999</v>
@@ -4666,13 +4666,13 @@
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
+      <c r="A172" s="3"/>
+      <c r="B172" s="3"/>
       <c r="C172">
         <v>15</v>
       </c>
       <c r="D172" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E172">
         <v>17.399999999999999</v>
@@ -4685,13 +4685,13 @@
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
+      <c r="A173" s="3"/>
+      <c r="B173" s="3"/>
       <c r="C173">
         <v>16</v>
       </c>
       <c r="D173" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E173">
         <v>18.2</v>
@@ -4703,17 +4703,17 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
+      <c r="A174" s="3"/>
+      <c r="B174" s="3"/>
       <c r="C174">
         <v>17</v>
       </c>
       <c r="D174" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E174">
         <v>18.899999999999999</v>
@@ -4726,13 +4726,13 @@
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
+      <c r="A175" s="3"/>
+      <c r="B175" s="3"/>
       <c r="C175">
         <v>18</v>
       </c>
       <c r="D175" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E175">
         <v>20</v>
@@ -4745,13 +4745,13 @@
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
+      <c r="A176" s="3"/>
+      <c r="B176" s="3"/>
       <c r="C176">
         <v>19</v>
       </c>
       <c r="D176" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E176">
         <v>20.9</v>
@@ -4764,13 +4764,13 @@
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
+      <c r="A177" s="3"/>
+      <c r="B177" s="3"/>
       <c r="C177">
         <v>20</v>
       </c>
       <c r="D177" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E177">
         <v>22.1</v>
@@ -4783,13 +4783,13 @@
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
+      <c r="A178" s="3"/>
+      <c r="B178" s="3"/>
       <c r="C178">
         <v>21</v>
       </c>
       <c r="D178" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E178">
         <v>23.3</v>
@@ -4802,13 +4802,13 @@
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
+      <c r="A179" s="3"/>
+      <c r="B179" s="3"/>
       <c r="C179">
         <v>22</v>
       </c>
       <c r="D179" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E179">
         <v>25.2</v>
@@ -4821,13 +4821,13 @@
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
+      <c r="A180" s="3"/>
+      <c r="B180" s="3"/>
       <c r="C180">
         <v>23</v>
       </c>
       <c r="D180" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E180">
         <v>26.3</v>
@@ -4840,13 +4840,13 @@
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
+      <c r="A181" s="3"/>
+      <c r="B181" s="3"/>
       <c r="C181">
         <v>24</v>
       </c>
       <c r="D181" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E181">
         <v>28.8</v>
@@ -4859,13 +4859,13 @@
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
+      <c r="A182" s="3"/>
+      <c r="B182" s="3"/>
       <c r="C182">
         <v>25</v>
       </c>
       <c r="D182" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E182">
         <v>30.4</v>
@@ -4878,13 +4878,13 @@
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
+      <c r="A183" s="3"/>
+      <c r="B183" s="3"/>
       <c r="C183">
         <v>26</v>
       </c>
       <c r="D183" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E183">
         <v>31.3</v>
@@ -4897,13 +4897,13 @@
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
+      <c r="A184" s="3"/>
+      <c r="B184" s="3"/>
       <c r="C184">
         <v>27</v>
       </c>
       <c r="D184" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E184">
         <v>32.5</v>
@@ -4916,13 +4916,13 @@
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
+      <c r="A185" s="3"/>
+      <c r="B185" s="3"/>
       <c r="C185">
         <v>28</v>
       </c>
       <c r="D185" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E185">
         <v>34.200000000000003</v>
@@ -4935,13 +4935,13 @@
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
+      <c r="A186" s="3"/>
+      <c r="B186" s="3"/>
       <c r="C186">
         <v>29</v>
       </c>
       <c r="D186" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E186">
         <v>35.4</v>
@@ -4954,13 +4954,13 @@
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
+      <c r="A187" s="3"/>
+      <c r="B187" s="3"/>
       <c r="C187">
         <v>30</v>
       </c>
       <c r="D187" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E187">
         <v>37</v>
@@ -4973,13 +4973,13 @@
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
+      <c r="A188" s="3"/>
+      <c r="B188" s="3"/>
       <c r="C188">
         <v>31</v>
       </c>
       <c r="D188" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E188">
         <v>38.299999999999997</v>
@@ -4992,13 +4992,13 @@
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
+      <c r="A189" s="3"/>
+      <c r="B189" s="3"/>
       <c r="C189">
         <v>32</v>
       </c>
       <c r="D189" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E189">
         <v>40.1</v>
@@ -5011,13 +5011,13 @@
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
       <c r="C190">
         <v>33</v>
       </c>
       <c r="D190" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E190">
         <v>41.8</v>
@@ -5030,13 +5030,13 @@
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
+      <c r="A191" s="3"/>
+      <c r="B191" s="3"/>
       <c r="C191">
         <v>34</v>
       </c>
       <c r="D191" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E191">
         <v>43.5</v>
@@ -5049,17 +5049,17 @@
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A192" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>72</v>
+      <c r="A192" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -5071,17 +5071,17 @@
         <v>1</v>
       </c>
       <c r="H192" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
+      <c r="A193" s="3"/>
+      <c r="B193" s="3"/>
       <c r="C193">
         <v>2</v>
       </c>
       <c r="D193" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E193">
         <v>2</v>
@@ -5094,13 +5094,13 @@
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
+      <c r="A194" s="3"/>
+      <c r="B194" s="3"/>
       <c r="C194">
         <v>3</v>
       </c>
       <c r="D194" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E194">
         <v>3.1</v>
@@ -5113,13 +5113,13 @@
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
+      <c r="A195" s="3"/>
+      <c r="B195" s="3"/>
       <c r="C195">
         <v>4</v>
       </c>
       <c r="D195" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E195">
         <v>4.5999999999999996</v>
@@ -5132,13 +5132,13 @@
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
+      <c r="A196" s="3"/>
+      <c r="B196" s="3"/>
       <c r="C196">
         <v>5</v>
       </c>
       <c r="D196" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E196">
         <v>7.2</v>
@@ -5151,13 +5151,13 @@
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
+      <c r="A197" s="3"/>
+      <c r="B197" s="3"/>
       <c r="C197">
         <v>6</v>
       </c>
       <c r="D197" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E197">
         <v>8.9</v>
@@ -5170,13 +5170,13 @@
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A198" s="2"/>
-      <c r="B198" s="2"/>
+      <c r="A198" s="3"/>
+      <c r="B198" s="3"/>
       <c r="C198">
         <v>7</v>
       </c>
       <c r="D198" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E198">
         <v>10.7</v>
@@ -5189,13 +5189,13 @@
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
+      <c r="A199" s="3"/>
+      <c r="B199" s="3"/>
       <c r="C199">
         <v>8</v>
       </c>
       <c r="D199" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E199">
         <v>12.8</v>
@@ -5208,13 +5208,13 @@
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
+      <c r="A200" s="3"/>
+      <c r="B200" s="3"/>
       <c r="C200">
         <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E200">
         <v>14</v>
@@ -5227,13 +5227,13 @@
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
+      <c r="A201" s="3"/>
+      <c r="B201" s="3"/>
       <c r="C201">
         <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E201">
         <v>15.4</v>
@@ -5246,13 +5246,13 @@
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
+      <c r="A202" s="3"/>
+      <c r="B202" s="3"/>
       <c r="C202">
         <v>11</v>
       </c>
       <c r="D202" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E202">
         <v>16.3</v>
@@ -5265,13 +5265,13 @@
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2"/>
+      <c r="A203" s="3"/>
+      <c r="B203" s="3"/>
       <c r="C203">
         <v>12</v>
       </c>
       <c r="D203" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E203">
         <v>17.5</v>
@@ -5283,17 +5283,17 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
+      <c r="A204" s="3"/>
+      <c r="B204" s="3"/>
       <c r="C204">
         <v>13</v>
       </c>
       <c r="D204" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E204">
         <v>19</v>
@@ -5306,13 +5306,13 @@
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2"/>
+      <c r="A205" s="3"/>
+      <c r="B205" s="3"/>
       <c r="C205">
         <v>14</v>
       </c>
       <c r="D205" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E205">
         <v>19.899999999999999</v>
@@ -5325,13 +5325,13 @@
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A206" s="2"/>
-      <c r="B206" s="2"/>
+      <c r="A206" s="3"/>
+      <c r="B206" s="3"/>
       <c r="C206">
         <v>15</v>
       </c>
       <c r="D206" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E206">
         <v>20.8</v>
@@ -5344,13 +5344,13 @@
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2"/>
+      <c r="A207" s="3"/>
+      <c r="B207" s="3"/>
       <c r="C207">
         <v>16</v>
       </c>
       <c r="D207" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E207">
         <v>22.1</v>
@@ -5363,13 +5363,13 @@
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A208" s="2"/>
-      <c r="B208" s="2"/>
+      <c r="A208" s="3"/>
+      <c r="B208" s="3"/>
       <c r="C208">
         <v>17</v>
       </c>
       <c r="D208" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E208">
         <v>23</v>
@@ -5381,17 +5381,17 @@
         <v>1</v>
       </c>
       <c r="H208" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A209" s="2"/>
-      <c r="B209" s="2"/>
+      <c r="A209" s="3"/>
+      <c r="B209" s="3"/>
       <c r="C209">
         <v>18</v>
       </c>
       <c r="D209" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E209">
         <v>23.8</v>
@@ -5404,13 +5404,13 @@
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A210" s="2"/>
-      <c r="B210" s="2"/>
+      <c r="A210" s="3"/>
+      <c r="B210" s="3"/>
       <c r="C210">
         <v>19</v>
       </c>
       <c r="D210" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E210">
         <v>24.9</v>
@@ -5423,13 +5423,13 @@
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
+      <c r="A211" s="3"/>
+      <c r="B211" s="3"/>
       <c r="C211">
         <v>20</v>
       </c>
       <c r="D211" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E211">
         <v>26.1</v>
@@ -5442,13 +5442,13 @@
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A212" s="2"/>
-      <c r="B212" s="2"/>
+      <c r="A212" s="3"/>
+      <c r="B212" s="3"/>
       <c r="C212">
         <v>21</v>
       </c>
       <c r="D212" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E212">
         <v>26.6</v>
@@ -5461,13 +5461,13 @@
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A213" s="2"/>
-      <c r="B213" s="2"/>
+      <c r="A213" s="3"/>
+      <c r="B213" s="3"/>
       <c r="C213">
         <v>22</v>
       </c>
       <c r="D213" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E213">
         <v>28.4</v>
@@ -5480,13 +5480,13 @@
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A214" s="2"/>
-      <c r="B214" s="2"/>
+      <c r="A214" s="3"/>
+      <c r="B214" s="3"/>
       <c r="C214">
         <v>23</v>
       </c>
       <c r="D214" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E214">
         <v>29.8</v>
@@ -5499,13 +5499,13 @@
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A215" s="2"/>
-      <c r="B215" s="2"/>
+      <c r="A215" s="3"/>
+      <c r="B215" s="3"/>
       <c r="C215">
         <v>24</v>
       </c>
       <c r="D215" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E215">
         <v>31.4</v>
@@ -5518,13 +5518,13 @@
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A216" s="2"/>
-      <c r="B216" s="2"/>
+      <c r="A216" s="3"/>
+      <c r="B216" s="3"/>
       <c r="C216">
         <v>25</v>
       </c>
       <c r="D216" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E216">
         <v>33.1</v>
@@ -5536,21 +5536,21 @@
         <v>1</v>
       </c>
       <c r="H216" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A217" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>25</v>
+      <c r="A217" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -5563,13 +5563,13 @@
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A218" s="2"/>
-      <c r="B218" s="2"/>
+      <c r="A218" s="3"/>
+      <c r="B218" s="3"/>
       <c r="C218">
         <v>2</v>
       </c>
       <c r="D218" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E218">
         <v>2.1</v>
@@ -5581,17 +5581,17 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A219" s="2"/>
-      <c r="B219" s="2"/>
+      <c r="A219" s="3"/>
+      <c r="B219" s="3"/>
       <c r="C219">
         <v>3</v>
       </c>
       <c r="D219" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E219">
         <v>3.7</v>
@@ -5604,13 +5604,13 @@
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A220" s="2"/>
-      <c r="B220" s="2"/>
+      <c r="A220" s="3"/>
+      <c r="B220" s="3"/>
       <c r="C220">
         <v>4</v>
       </c>
       <c r="D220" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E220">
         <v>5.0999999999999996</v>
@@ -5622,17 +5622,17 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A221" s="2"/>
-      <c r="B221" s="2"/>
+      <c r="A221" s="3"/>
+      <c r="B221" s="3"/>
       <c r="C221">
         <v>5</v>
       </c>
       <c r="D221" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E221">
         <v>6.3</v>
@@ -5645,13 +5645,13 @@
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A222" s="2"/>
-      <c r="B222" s="2"/>
+      <c r="A222" s="3"/>
+      <c r="B222" s="3"/>
       <c r="C222">
         <v>6</v>
       </c>
       <c r="D222" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E222">
         <v>7.7</v>
@@ -5664,13 +5664,13 @@
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A223" s="2"/>
-      <c r="B223" s="2"/>
+      <c r="A223" s="3"/>
+      <c r="B223" s="3"/>
       <c r="C223">
         <v>7</v>
       </c>
       <c r="D223" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E223">
         <v>10.199999999999999</v>
@@ -5683,13 +5683,13 @@
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A224" s="2"/>
-      <c r="B224" s="2"/>
+      <c r="A224" s="3"/>
+      <c r="B224" s="3"/>
       <c r="C224">
         <v>8</v>
       </c>
       <c r="D224" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E224">
         <v>11.3</v>
@@ -5701,17 +5701,17 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A225" s="2"/>
-      <c r="B225" s="2"/>
+      <c r="A225" s="3"/>
+      <c r="B225" s="3"/>
       <c r="C225">
         <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E225">
         <v>12.8</v>
@@ -5724,13 +5724,13 @@
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A226" s="2"/>
-      <c r="B226" s="2"/>
+      <c r="A226" s="3"/>
+      <c r="B226" s="3"/>
       <c r="C226">
         <v>10</v>
       </c>
       <c r="D226" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E226">
         <v>14.3</v>
@@ -5743,13 +5743,13 @@
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A227" s="2"/>
-      <c r="B227" s="2"/>
+      <c r="A227" s="3"/>
+      <c r="B227" s="3"/>
       <c r="C227">
         <v>11</v>
       </c>
       <c r="D227" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E227">
         <v>16.100000000000001</v>
@@ -5762,13 +5762,13 @@
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A228" s="2"/>
-      <c r="B228" s="2"/>
+      <c r="A228" s="3"/>
+      <c r="B228" s="3"/>
       <c r="C228">
         <v>12</v>
       </c>
       <c r="D228" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E228">
         <v>19.7</v>
@@ -5780,17 +5780,17 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A229" s="2"/>
-      <c r="B229" s="2"/>
+      <c r="A229" s="3"/>
+      <c r="B229" s="3"/>
       <c r="C229">
         <v>13</v>
       </c>
       <c r="D229" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E229">
         <v>21</v>
@@ -5803,13 +5803,13 @@
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A230" s="2"/>
-      <c r="B230" s="2"/>
+      <c r="A230" s="3"/>
+      <c r="B230" s="3"/>
       <c r="C230">
         <v>14</v>
       </c>
       <c r="D230" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E230">
         <v>22.6</v>
@@ -5822,13 +5822,13 @@
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A231" s="2"/>
-      <c r="B231" s="2"/>
+      <c r="A231" s="3"/>
+      <c r="B231" s="3"/>
       <c r="C231">
         <v>15</v>
       </c>
       <c r="D231" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E231">
         <v>23.8</v>
@@ -5841,13 +5841,13 @@
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A232" s="2"/>
-      <c r="B232" s="2"/>
+      <c r="A232" s="3"/>
+      <c r="B232" s="3"/>
       <c r="C232">
         <v>16</v>
       </c>
       <c r="D232" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E232">
         <v>24.9</v>
@@ -5859,17 +5859,17 @@
         <v>0</v>
       </c>
       <c r="H232" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A233" s="2"/>
-      <c r="B233" s="2"/>
+      <c r="A233" s="3"/>
+      <c r="B233" s="3"/>
       <c r="C233">
         <v>17</v>
       </c>
       <c r="D233" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E233">
         <v>26.1</v>
@@ -5882,13 +5882,13 @@
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A234" s="2"/>
-      <c r="B234" s="2"/>
+      <c r="A234" s="3"/>
+      <c r="B234" s="3"/>
       <c r="C234">
         <v>18</v>
       </c>
       <c r="D234" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E234">
         <v>27.7</v>
@@ -5900,17 +5900,17 @@
         <v>0</v>
       </c>
       <c r="H234" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A235" s="2"/>
-      <c r="B235" s="2"/>
+      <c r="A235" s="3"/>
+      <c r="B235" s="3"/>
       <c r="C235">
         <v>19</v>
       </c>
       <c r="D235" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E235">
         <v>29.1</v>
@@ -5923,13 +5923,13 @@
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A236" s="2"/>
-      <c r="B236" s="2"/>
+      <c r="A236" s="3"/>
+      <c r="B236" s="3"/>
       <c r="C236">
         <v>20</v>
       </c>
       <c r="D236" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E236">
         <v>30.3</v>
@@ -5942,13 +5942,13 @@
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A237" s="2"/>
-      <c r="B237" s="2"/>
+      <c r="A237" s="3"/>
+      <c r="B237" s="3"/>
       <c r="C237">
         <v>21</v>
       </c>
       <c r="D237" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E237">
         <v>32.200000000000003</v>
@@ -5961,13 +5961,13 @@
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A238" s="2"/>
-      <c r="B238" s="2"/>
+      <c r="A238" s="3"/>
+      <c r="B238" s="3"/>
       <c r="C238">
         <v>22</v>
       </c>
       <c r="D238" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E238">
         <v>35.799999999999997</v>
@@ -5979,17 +5979,17 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A239" s="2"/>
-      <c r="B239" s="2"/>
+      <c r="A239" s="3"/>
+      <c r="B239" s="3"/>
       <c r="C239">
         <v>23</v>
       </c>
       <c r="D239" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E239">
         <v>36.6</v>
@@ -6002,13 +6002,13 @@
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A240" s="2"/>
-      <c r="B240" s="2"/>
+      <c r="A240" s="3"/>
+      <c r="B240" s="3"/>
       <c r="C240">
         <v>24</v>
       </c>
       <c r="D240" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E240">
         <v>37.9</v>
@@ -6021,13 +6021,13 @@
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A241" s="2"/>
-      <c r="B241" s="2"/>
+      <c r="A241" s="3"/>
+      <c r="B241" s="3"/>
       <c r="C241">
         <v>25</v>
       </c>
       <c r="D241" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E241">
         <v>38.700000000000003</v>
@@ -6040,13 +6040,13 @@
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A242" s="2"/>
-      <c r="B242" s="2"/>
+      <c r="A242" s="3"/>
+      <c r="B242" s="3"/>
       <c r="C242">
         <v>26</v>
       </c>
       <c r="D242" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E242">
         <v>39.299999999999997</v>
@@ -6059,13 +6059,13 @@
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A243" s="2"/>
-      <c r="B243" s="2"/>
+      <c r="A243" s="3"/>
+      <c r="B243" s="3"/>
       <c r="C243">
         <v>27</v>
       </c>
       <c r="D243" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E243">
         <v>40.299999999999997</v>
@@ -6078,13 +6078,13 @@
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A244" s="2"/>
-      <c r="B244" s="2"/>
+      <c r="A244" s="3"/>
+      <c r="B244" s="3"/>
       <c r="C244">
         <v>28</v>
       </c>
       <c r="D244" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E244">
         <v>41.9</v>
@@ -6096,17 +6096,17 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A245" s="2"/>
-      <c r="B245" s="2"/>
+      <c r="A245" s="3"/>
+      <c r="B245" s="3"/>
       <c r="C245">
         <v>29</v>
       </c>
       <c r="D245" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E245">
         <v>42.9</v>
@@ -6118,17 +6118,17 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A246" s="2"/>
-      <c r="B246" s="2"/>
+      <c r="A246" s="3"/>
+      <c r="B246" s="3"/>
       <c r="C246">
         <v>30</v>
       </c>
       <c r="D246" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E246">
         <v>44</v>
@@ -6141,13 +6141,13 @@
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A247" s="2"/>
-      <c r="B247" s="2"/>
+      <c r="A247" s="3"/>
+      <c r="B247" s="3"/>
       <c r="C247">
         <v>31</v>
       </c>
       <c r="D247" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E247">
         <v>44.7</v>
@@ -6160,13 +6160,13 @@
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A248" s="2"/>
-      <c r="B248" s="2"/>
+      <c r="A248" s="3"/>
+      <c r="B248" s="3"/>
       <c r="C248">
         <v>32</v>
       </c>
       <c r="D248" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E248">
         <v>45.7</v>
@@ -6179,13 +6179,13 @@
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A249" s="2"/>
-      <c r="B249" s="2"/>
+      <c r="A249" s="3"/>
+      <c r="B249" s="3"/>
       <c r="C249">
         <v>33</v>
       </c>
       <c r="D249" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E249">
         <v>46.8</v>
@@ -6197,17 +6197,17 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A250" s="2"/>
-      <c r="B250" s="2"/>
+      <c r="A250" s="3"/>
+      <c r="B250" s="3"/>
       <c r="C250">
         <v>34</v>
       </c>
       <c r="D250" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E250">
         <v>48</v>
@@ -6220,13 +6220,13 @@
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A251" s="2"/>
-      <c r="B251" s="2"/>
+      <c r="A251" s="3"/>
+      <c r="B251" s="3"/>
       <c r="C251">
         <v>35</v>
       </c>
       <c r="D251" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E251">
         <v>49.1</v>
@@ -6239,13 +6239,13 @@
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A252" s="2"/>
-      <c r="B252" s="2"/>
+      <c r="A252" s="3"/>
+      <c r="B252" s="3"/>
       <c r="C252">
         <v>36</v>
       </c>
       <c r="D252" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E252">
         <v>50.4</v>
@@ -6258,13 +6258,13 @@
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A253" s="2"/>
-      <c r="B253" s="2"/>
+      <c r="A253" s="3"/>
+      <c r="B253" s="3"/>
       <c r="C253">
         <v>37</v>
       </c>
       <c r="D253" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E253">
         <v>51.7</v>
@@ -6277,13 +6277,13 @@
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A254" s="2"/>
-      <c r="B254" s="2"/>
+      <c r="A254" s="3"/>
+      <c r="B254" s="3"/>
       <c r="C254">
         <v>38</v>
       </c>
       <c r="D254" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E254">
         <v>52.6</v>
@@ -6296,17 +6296,17 @@
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A255" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>62</v>
+      <c r="A255" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -6319,13 +6319,13 @@
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A256" s="2"/>
-      <c r="B256" s="2"/>
+      <c r="A256" s="3"/>
+      <c r="B256" s="3"/>
       <c r="C256">
         <v>2</v>
       </c>
       <c r="D256" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E256">
         <v>1.3</v>
@@ -6338,13 +6338,13 @@
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A257" s="2"/>
-      <c r="B257" s="2"/>
+      <c r="A257" s="3"/>
+      <c r="B257" s="3"/>
       <c r="C257">
         <v>3</v>
       </c>
       <c r="D257" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E257">
         <v>2.4</v>
@@ -6357,13 +6357,13 @@
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A258" s="2"/>
-      <c r="B258" s="2"/>
+      <c r="A258" s="3"/>
+      <c r="B258" s="3"/>
       <c r="C258">
         <v>4</v>
       </c>
       <c r="D258" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E258">
         <v>3.4</v>
@@ -6376,13 +6376,13 @@
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A259" s="2"/>
-      <c r="B259" s="2"/>
+      <c r="A259" s="3"/>
+      <c r="B259" s="3"/>
       <c r="C259">
         <v>5</v>
       </c>
       <c r="D259" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E259">
         <v>4.5999999999999996</v>
@@ -6394,17 +6394,17 @@
         <v>0</v>
       </c>
       <c r="H259" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A260" s="2"/>
-      <c r="B260" s="2"/>
+      <c r="A260" s="3"/>
+      <c r="B260" s="3"/>
       <c r="C260">
         <v>6</v>
       </c>
       <c r="D260" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E260">
         <v>5.7</v>
@@ -6416,17 +6416,17 @@
         <v>0</v>
       </c>
       <c r="H260" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A261" s="2"/>
-      <c r="B261" s="2"/>
+      <c r="A261" s="3"/>
+      <c r="B261" s="3"/>
       <c r="C261">
         <v>7</v>
       </c>
       <c r="D261" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E261">
         <v>6.5</v>
@@ -6439,13 +6439,13 @@
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A262" s="2"/>
-      <c r="B262" s="2"/>
+      <c r="A262" s="3"/>
+      <c r="B262" s="3"/>
       <c r="C262">
         <v>8</v>
       </c>
       <c r="D262" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E262">
         <v>8.1</v>
@@ -6458,17 +6458,17 @@
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A263" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>35</v>
+      <c r="A263" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -6481,13 +6481,13 @@
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A264" s="2"/>
-      <c r="B264" s="2"/>
+      <c r="A264" s="3"/>
+      <c r="B264" s="3"/>
       <c r="C264">
         <v>2</v>
       </c>
       <c r="D264" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E264">
         <v>1.1000000000000001</v>
@@ -6500,13 +6500,13 @@
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A265" s="2"/>
-      <c r="B265" s="2"/>
+      <c r="A265" s="3"/>
+      <c r="B265" s="3"/>
       <c r="C265">
         <v>3</v>
       </c>
       <c r="D265" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E265">
         <v>2.1</v>
@@ -6518,21 +6518,21 @@
         <v>0</v>
       </c>
       <c r="H265" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A266" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>133</v>
+      <c r="A266" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -6544,17 +6544,17 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A267" s="2"/>
-      <c r="B267" s="2"/>
+      <c r="A267" s="3"/>
+      <c r="B267" s="3"/>
       <c r="C267">
         <v>2</v>
       </c>
       <c r="D267" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E267">
         <v>1.3</v>
@@ -6567,13 +6567,13 @@
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A268" s="2"/>
-      <c r="B268" s="2"/>
+      <c r="A268" s="3"/>
+      <c r="B268" s="3"/>
       <c r="C268">
         <v>3</v>
       </c>
       <c r="D268" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E268">
         <v>2.2999999999999998</v>
@@ -6586,13 +6586,13 @@
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A269" s="2"/>
-      <c r="B269" s="2"/>
+      <c r="A269" s="3"/>
+      <c r="B269" s="3"/>
       <c r="C269">
         <v>4</v>
       </c>
       <c r="D269" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E269">
         <v>3.4</v>
@@ -6605,13 +6605,13 @@
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A270" s="2"/>
-      <c r="B270" s="2"/>
+      <c r="A270" s="3"/>
+      <c r="B270" s="3"/>
       <c r="C270">
         <v>5</v>
       </c>
       <c r="D270" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E270">
         <v>4.3</v>
@@ -6624,13 +6624,13 @@
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A271" s="2"/>
-      <c r="B271" s="2"/>
+      <c r="A271" s="3"/>
+      <c r="B271" s="3"/>
       <c r="C271">
         <v>6</v>
       </c>
       <c r="D271" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E271">
         <v>6.3</v>
@@ -6643,13 +6643,13 @@
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A272" s="2"/>
-      <c r="B272" s="2"/>
+      <c r="A272" s="3"/>
+      <c r="B272" s="3"/>
       <c r="C272">
         <v>7</v>
       </c>
       <c r="D272" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E272">
         <v>7.4</v>
@@ -6662,13 +6662,13 @@
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A273" s="2"/>
-      <c r="B273" s="2"/>
+      <c r="A273" s="3"/>
+      <c r="B273" s="3"/>
       <c r="C273">
         <v>8</v>
       </c>
       <c r="D273" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E273">
         <v>8.9</v>
@@ -6681,13 +6681,13 @@
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A274" s="2"/>
-      <c r="B274" s="2"/>
+      <c r="A274" s="3"/>
+      <c r="B274" s="3"/>
       <c r="C274">
         <v>9</v>
       </c>
       <c r="D274" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E274">
         <v>10.5</v>
@@ -6700,13 +6700,13 @@
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A275" s="2"/>
-      <c r="B275" s="2"/>
+      <c r="A275" s="3"/>
+      <c r="B275" s="3"/>
       <c r="C275">
         <v>10</v>
       </c>
       <c r="D275" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E275">
         <v>11.5</v>
@@ -6719,13 +6719,13 @@
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A276" s="2"/>
-      <c r="B276" s="2"/>
+      <c r="A276" s="3"/>
+      <c r="B276" s="3"/>
       <c r="C276">
         <v>11</v>
       </c>
       <c r="D276" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E276">
         <v>12.9</v>
@@ -6738,13 +6738,13 @@
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A277" s="2"/>
-      <c r="B277" s="2"/>
+      <c r="A277" s="3"/>
+      <c r="B277" s="3"/>
       <c r="C277">
         <v>12</v>
       </c>
       <c r="D277" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E277">
         <v>14.1</v>
@@ -6757,13 +6757,13 @@
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A278" s="2"/>
-      <c r="B278" s="2"/>
+      <c r="A278" s="3"/>
+      <c r="B278" s="3"/>
       <c r="C278">
         <v>13</v>
       </c>
       <c r="D278" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E278">
         <v>15.8</v>
@@ -6776,13 +6776,13 @@
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A279" s="2"/>
-      <c r="B279" s="2"/>
+      <c r="A279" s="3"/>
+      <c r="B279" s="3"/>
       <c r="C279">
         <v>14</v>
       </c>
       <c r="D279" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E279">
         <v>17.3</v>
@@ -6795,13 +6795,13 @@
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A280" s="2"/>
-      <c r="B280" s="2"/>
+      <c r="A280" s="3"/>
+      <c r="B280" s="3"/>
       <c r="C280">
         <v>15</v>
       </c>
       <c r="D280" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E280">
         <v>18.899999999999999</v>
@@ -6814,13 +6814,13 @@
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A281" s="2"/>
-      <c r="B281" s="2"/>
+      <c r="A281" s="3"/>
+      <c r="B281" s="3"/>
       <c r="C281">
         <v>16</v>
       </c>
       <c r="D281" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E281">
         <v>21.4</v>
@@ -6833,13 +6833,13 @@
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A282" s="2"/>
-      <c r="B282" s="2"/>
+      <c r="A282" s="3"/>
+      <c r="B282" s="3"/>
       <c r="C282">
         <v>17</v>
       </c>
       <c r="D282" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E282">
         <v>22.5</v>
@@ -6852,13 +6852,13 @@
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A283" s="2"/>
-      <c r="B283" s="2"/>
+      <c r="A283" s="3"/>
+      <c r="B283" s="3"/>
       <c r="C283">
         <v>18</v>
       </c>
       <c r="D283" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E283">
         <v>23.4</v>
@@ -6871,13 +6871,13 @@
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A284" s="2"/>
-      <c r="B284" s="2"/>
+      <c r="A284" s="3"/>
+      <c r="B284" s="3"/>
       <c r="C284">
         <v>19</v>
       </c>
       <c r="D284" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E284">
         <v>24.9</v>
@@ -6890,13 +6890,13 @@
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A285" s="2"/>
-      <c r="B285" s="2"/>
+      <c r="A285" s="3"/>
+      <c r="B285" s="3"/>
       <c r="C285">
         <v>20</v>
       </c>
       <c r="D285" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E285">
         <v>26.2</v>
@@ -6909,13 +6909,13 @@
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A286" s="2"/>
-      <c r="B286" s="2"/>
+      <c r="A286" s="3"/>
+      <c r="B286" s="3"/>
       <c r="C286">
         <v>21</v>
       </c>
       <c r="D286" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E286">
         <v>27.1</v>
@@ -6928,17 +6928,17 @@
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A287" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>96</v>
+      <c r="A287" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="C287">
         <v>1</v>
       </c>
       <c r="D287" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E287">
         <v>0</v>
@@ -6950,17 +6950,17 @@
         <v>1</v>
       </c>
       <c r="H287" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A288" s="2"/>
-      <c r="B288" s="2"/>
+      <c r="A288" s="3"/>
+      <c r="B288" s="3"/>
       <c r="C288">
         <v>2</v>
       </c>
       <c r="D288" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E288">
         <v>1.5</v>
@@ -6973,13 +6973,13 @@
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A289" s="2"/>
-      <c r="B289" s="2"/>
+      <c r="A289" s="3"/>
+      <c r="B289" s="3"/>
       <c r="C289">
         <v>3</v>
       </c>
       <c r="D289" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E289">
         <v>3.9</v>
@@ -6993,36 +6993,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A263:A265"/>
+    <mergeCell ref="B263:B265"/>
+    <mergeCell ref="A266:A286"/>
+    <mergeCell ref="B266:B286"/>
+    <mergeCell ref="A287:A289"/>
+    <mergeCell ref="B287:B289"/>
+    <mergeCell ref="A192:A216"/>
+    <mergeCell ref="B192:B216"/>
+    <mergeCell ref="A217:A254"/>
+    <mergeCell ref="B217:B254"/>
+    <mergeCell ref="A255:A262"/>
+    <mergeCell ref="B255:B262"/>
+    <mergeCell ref="A126:A146"/>
+    <mergeCell ref="B126:B146"/>
+    <mergeCell ref="A147:A157"/>
+    <mergeCell ref="B147:B157"/>
+    <mergeCell ref="A158:A191"/>
+    <mergeCell ref="B158:B191"/>
+    <mergeCell ref="A33:A69"/>
+    <mergeCell ref="B33:B69"/>
+    <mergeCell ref="A70:A119"/>
+    <mergeCell ref="B70:B119"/>
+    <mergeCell ref="A120:A125"/>
+    <mergeCell ref="B120:B125"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A4:A32"/>
     <mergeCell ref="B4:B32"/>
     <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A33:A69"/>
-    <mergeCell ref="B33:B69"/>
-    <mergeCell ref="A70:A119"/>
-    <mergeCell ref="B70:B119"/>
-    <mergeCell ref="A120:A125"/>
-    <mergeCell ref="B120:B125"/>
-    <mergeCell ref="A126:A146"/>
-    <mergeCell ref="B126:B146"/>
-    <mergeCell ref="A147:A157"/>
-    <mergeCell ref="B147:B157"/>
-    <mergeCell ref="A158:A191"/>
-    <mergeCell ref="B158:B191"/>
-    <mergeCell ref="A192:A216"/>
-    <mergeCell ref="B192:B216"/>
-    <mergeCell ref="A217:A254"/>
-    <mergeCell ref="B217:B254"/>
-    <mergeCell ref="A255:A262"/>
-    <mergeCell ref="B255:B262"/>
-    <mergeCell ref="A263:A265"/>
-    <mergeCell ref="B263:B265"/>
-    <mergeCell ref="A266:A286"/>
-    <mergeCell ref="B266:B286"/>
-    <mergeCell ref="A287:A289"/>
-    <mergeCell ref="B287:B289"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
